--- a/Unit_Test/TrelloTestCase_QuanPhan.xlsx
+++ b/Unit_Test/TrelloTestCase_QuanPhan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\YBB4-QuanPhan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\YBB4-QuanPhan\Unit_Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C3D77BB-2A37-4695-9A38-3DA9AEE4A824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92E18CF-A0E7-415F-907D-E846D38E1E57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{CF4A998A-5824-4540-835B-D54327114C50}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>Test Class ID</t>
   </si>
@@ -49,6 +49,255 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>createWorkspace</t>
+  </si>
+  <si>
+    <t>Create with valid data</t>
+  </si>
+  <si>
+    <t>User with ID 1 exists</t>
+  </si>
+  <si>
+    <t>Call createWorkspace("Test", "Desc", "Type", 1)</t>
+  </si>
+  <si>
+    <t>Returns Workspace with Id set, Name="Test", Description="Desc", Type="Type", CreatedBy=1, CreatedAt not null</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Create with invalid CreatedBy</t>
+  </si>
+  <si>
+    <t>No user with ID 999 exists</t>
+  </si>
+  <si>
+    <t>Call createWorkspace("Test", "Desc", "Type", 999)</t>
+  </si>
+  <si>
+    <t>Throws UserNotFoundException</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Create with null name</t>
+  </si>
+  <si>
+    <t>Call createWorkspace(null, "Desc", "Type", 1)</t>
+  </si>
+  <si>
+    <t>Throws InvalidInputException</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>Create with empty name</t>
+  </si>
+  <si>
+    <t>Call createWorkspace("", "Desc", "Type", 1)</t>
+  </si>
+  <si>
+    <t>TC005</t>
+  </si>
+  <si>
+    <t>Create with name exceeding 255 chars</t>
+  </si>
+  <si>
+    <t>Call createWorkspace(256-char string, "Desc", "Type", 1)</t>
+  </si>
+  <si>
+    <t>TC006</t>
+  </si>
+  <si>
+    <t>Create with null type</t>
+  </si>
+  <si>
+    <t>Call createWorkspace("Test", "Desc", null, 1)</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>Create with empty type</t>
+  </si>
+  <si>
+    <t>Call createWorkspace("Test", "Desc", "", 1)</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>Create with type exceeding 100 chars</t>
+  </si>
+  <si>
+    <t>Call createWorkspace("Test", "Desc", 101-char string, 1)</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>Create with null description</t>
+  </si>
+  <si>
+    <t>Call createWorkspace("Test", null, "Type", 1)</t>
+  </si>
+  <si>
+    <t>Returns Workspace with Description=null, other fields populated correctly</t>
+  </si>
+  <si>
+    <t>TC010</t>
+  </si>
+  <si>
+    <t>Create with very long description</t>
+  </si>
+  <si>
+    <t>Call createWorkspace("Test", 10000-char string, "Type", 1)</t>
+  </si>
+  <si>
+    <t>Returns Workspace with long Description, other fields correct</t>
+  </si>
+  <si>
+    <t>TC011</t>
+  </si>
+  <si>
+    <t>Verify CreatedAt is set</t>
+  </si>
+  <si>
+    <t>Returns Workspace with CreatedAt not null</t>
+  </si>
+  <si>
+    <t>TC012</t>
+  </si>
+  <si>
+    <t>getWorkspaceById</t>
+  </si>
+  <si>
+    <t>Retrieve existing workspace</t>
+  </si>
+  <si>
+    <t>Workspace with ID 1 exists</t>
+  </si>
+  <si>
+    <t>Call getWorkspaceById(1)</t>
+  </si>
+  <si>
+    <t>Returns Workspace with Id=1 and correct field values</t>
+  </si>
+  <si>
+    <t>TC013</t>
+  </si>
+  <si>
+    <t>Retrieve non-existing workspace</t>
+  </si>
+  <si>
+    <t>No workspace with ID 999</t>
+  </si>
+  <si>
+    <t>Call getWorkspaceById(999)</t>
+  </si>
+  <si>
+    <t>Returns null</t>
+  </si>
+  <si>
+    <t>TC014</t>
+  </si>
+  <si>
+    <t>updateWorkspace</t>
+  </si>
+  <si>
+    <t>Update with valid data</t>
+  </si>
+  <si>
+    <t>Call updateWorkspace(1, "New Name", "New Desc", "New Type")</t>
+  </si>
+  <si>
+    <t>Workspace updated with new Name, Description, Type; no exception</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Update with null name</t>
+  </si>
+  <si>
+    <t>Call updateWorkspace(1, null, "New Desc", "New Type")</t>
+  </si>
+  <si>
+    <t>TC016</t>
+  </si>
+  <si>
+    <t>Update with empty name</t>
+  </si>
+  <si>
+    <t>Call updateWorkspace(1, "", "New Desc", "New Type")</t>
+  </si>
+  <si>
+    <t>TC017</t>
+  </si>
+  <si>
+    <t>Update with null type</t>
+  </si>
+  <si>
+    <t>Call updateWorkspace(1, "New Name", "New Desc", null)</t>
+  </si>
+  <si>
+    <t>TC018</t>
+  </si>
+  <si>
+    <t>Update with null description</t>
+  </si>
+  <si>
+    <t>Call updateWorkspace(1, "New Name", null, "New Type")</t>
+  </si>
+  <si>
+    <t>Workspace updated with Description=null, other fields updated; no exception</t>
+  </si>
+  <si>
+    <t>TC019</t>
+  </si>
+  <si>
+    <t>Update non-existing workspace</t>
+  </si>
+  <si>
+    <t>Call updateWorkspace(999, "Name", "Desc", "Type")</t>
+  </si>
+  <si>
+    <t>Throws WorkspaceNotFoundException</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>deleteWorkspace</t>
+  </si>
+  <si>
+    <t>Delete existing workspace</t>
+  </si>
+  <si>
+    <t>Call deleteWorkspace(1)</t>
+  </si>
+  <si>
+    <t>Workspace is deleted; no exception</t>
+  </si>
+  <si>
+    <t>TC021</t>
+  </si>
+  <si>
+    <t>Delete non-existing workspace</t>
+  </si>
+  <si>
+    <t>Call deleteWorkspace(999)</t>
+  </si>
+  <si>
+    <t>No exception (operation has no effect)</t>
   </si>
 </sst>
 </file>
@@ -400,20 +649,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ED0410-7754-4CF8-9AB8-CF68296DBA51}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="59.28515625" customWidth="1"/>
+    <col min="6" max="6" width="99.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -443,6 +692,426 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
